--- a/Data/source/English/Water footprint product list.xlsx
+++ b/Data/source/English/Water footprint product list.xlsx
@@ -160,6 +160,9 @@
     <t>Chick peas</t>
   </si>
   <si>
+    <t>Chickpeas</t>
+  </si>
+  <si>
     <t>Chicken meat</t>
   </si>
   <si>
@@ -208,10 +211,10 @@
     <t>Copra</t>
   </si>
   <si>
-    <t>Coconuts</t>
-  </si>
-  <si>
-    <t>Coconuts, husked</t>
+    <t>Coconuts, dehusked</t>
+  </si>
+  <si>
+    <t>Coconuts, with husk</t>
   </si>
   <si>
     <t>Coffee, green</t>
@@ -527,9 +530,6 @@
   </si>
   <si>
     <t>Peas, green</t>
-  </si>
-  <si>
-    <t>Pepper</t>
   </si>
   <si>
     <t>Peppermint</t>
@@ -877,9 +877,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.29"/>
-    <col customWidth="1" min="2" max="2" width="42.0"/>
-    <col customWidth="1" min="3" max="4" width="20.86"/>
+    <col customWidth="1" min="1" max="1" width="12.86"/>
+    <col customWidth="1" min="2" max="2" width="24.43"/>
+    <col customWidth="1" min="3" max="3" width="28.57"/>
+    <col customWidth="1" min="4" max="4" width="14.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -950,8 +951,10 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3">
-      <c r="A3" s="6"/>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="6">
+        <v>1.0</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -960,8 +963,10 @@
         <v>22654.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="6">
+        <v>2.0</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -970,8 +975,10 @@
         <v>6549.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6"/>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="6">
+        <v>3.0</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -980,8 +987,10 @@
         <v>16095.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6"/>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>4.0</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -990,8 +999,10 @@
         <v>8047.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6"/>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6">
+        <v>5.0</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1000,8 +1011,10 @@
         <v>8280.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6"/>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6">
+        <v>6.0</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1023,10 @@
         <v>1141.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>7.0</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1020,8 +1035,10 @@
         <v>6847.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6"/>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6">
+        <v>8.0</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1047,10 @@
         <v>822.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6"/>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6">
+        <v>9.0</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1040,8 +1059,10 @@
         <v>1287.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6">
+        <v>10.0</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1050,8 +1071,10 @@
         <v>11165.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6">
+        <v>11.0</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1060,8 +1083,10 @@
         <v>818.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>12.0</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1070,8 +1095,10 @@
         <v>2150.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6"/>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6">
+        <v>13.0</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1080,8 +1107,10 @@
         <v>1981.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="6"/>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>14.0</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1090,8 +1119,10 @@
         <v>8280.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="6"/>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="6">
+        <v>15.0</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1100,8 +1131,10 @@
         <v>790.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6"/>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6">
+        <v>16.0</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1110,8 +1143,10 @@
         <v>1423.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6"/>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>17.0</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1120,8 +1155,10 @@
         <v>1977.0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6"/>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="6">
+        <v>18.0</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1130,8 +1167,10 @@
         <v>5053.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6"/>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>19.0</v>
+      </c>
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1140,8 +1179,10 @@
         <v>561.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6"/>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="6">
+        <v>20.0</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1152,8 +1193,10 @@
         <v>15415.0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6"/>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="6">
+        <v>21.0</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
@@ -1162,8 +1205,10 @@
         <v>298.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6"/>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="6">
+        <v>22.0</v>
+      </c>
       <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
@@ -1172,8 +1217,10 @@
         <v>845.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="6">
+        <v>23.0</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
@@ -1182,8 +1229,10 @@
         <v>1608.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6"/>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="6">
+        <v>24.0</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
@@ -1194,8 +1243,10 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="6"/>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="6">
+        <v>25.0</v>
+      </c>
       <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1204,8 +1255,10 @@
         <v>285.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6"/>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="6">
+        <v>26.0</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
@@ -1214,8 +1267,10 @@
         <v>285.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6"/>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>27.0</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
@@ -1224,8 +1279,10 @@
         <v>3142.0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6"/>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="6">
+        <v>28.0</v>
+      </c>
       <c r="B30" s="6" t="s">
         <v>33</v>
       </c>
@@ -1234,8 +1291,10 @@
         <v>5553.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="6">
+        <v>29.0</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>34</v>
       </c>
@@ -1244,8 +1303,10 @@
         <v>280.0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6"/>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="6">
+        <v>30.0</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1254,8 +1315,10 @@
         <v>527.0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="6">
+        <v>31.0</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1264,8 +1327,10 @@
         <v>34319.0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="6"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>32.0</v>
+      </c>
       <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
@@ -1274,8 +1339,10 @@
         <v>5594.0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6"/>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="6">
+        <v>33.0</v>
+      </c>
       <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
@@ -1284,8 +1351,10 @@
         <v>195.0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>34.0</v>
+      </c>
       <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
@@ -1294,8 +1363,10 @@
         <v>3793.0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="6"/>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="6">
+        <v>35.0</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
@@ -1305,8 +1376,10 @@
       </c>
       <c r="E37" s="8"/>
     </row>
-    <row r="38">
-      <c r="A38" s="6"/>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="6">
+        <v>36.0</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>41</v>
       </c>
@@ -1315,8 +1388,10 @@
         <v>1878.0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6"/>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>37.0</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>42</v>
       </c>
@@ -1325,8 +1400,10 @@
         <v>24740.0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="6">
+        <v>38.0</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
@@ -1335,8 +1412,10 @@
         <v>9896.0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="6"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>39.0</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>44</v>
       </c>
@@ -1345,8 +1424,10 @@
         <v>285.0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6"/>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="6">
+        <v>40.0</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>45</v>
       </c>
@@ -1355,8 +1436,10 @@
         <v>5060.0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="6"/>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="6">
+        <v>41.0</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
@@ -1365,8 +1448,10 @@
         <v>1604.0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="6"/>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>42.0</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>47</v>
       </c>
@@ -1375,1979 +1460,2359 @@
         <v>2750.0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="6"/>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6">
+        <v>43.0</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D45" s="6">
         <v>4177.0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="6"/>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>44.0</v>
+      </c>
       <c r="B46" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6">
         <v>4325.0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="6"/>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="6">
+        <v>45.0</v>
+      </c>
       <c r="B47" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6">
         <v>7365.0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="6"/>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="6">
+        <v>46.0</v>
+      </c>
       <c r="B48" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6">
         <v>379.0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="6"/>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="6">
+        <v>47.0</v>
+      </c>
       <c r="B49" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6">
         <v>17196.0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="6"/>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="6">
+        <v>48.0</v>
+      </c>
       <c r="B50" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" s="6">
         <v>15526.0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="6"/>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="6">
+        <v>49.0</v>
+      </c>
       <c r="B51" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6">
         <v>748.0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="6"/>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="6">
+        <v>50.0</v>
+      </c>
       <c r="B52" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6">
         <v>61205.0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="6"/>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="6">
+        <v>51.0</v>
+      </c>
       <c r="B53" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6">
         <v>19928.0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="6"/>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="6">
+        <v>52.0</v>
+      </c>
       <c r="B54" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6">
         <v>33938.0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="6"/>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="6">
+        <v>53.0</v>
+      </c>
       <c r="B55" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6">
         <v>24238.0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="6"/>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="6">
+        <v>54.0</v>
+      </c>
       <c r="B56" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6">
         <v>15636.0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="6"/>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="6">
+        <v>55.0</v>
+      </c>
       <c r="B57" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57" s="6">
         <v>2449.0</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="6"/>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="6">
+        <v>56.0</v>
+      </c>
       <c r="B58" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D58" s="6">
         <v>4490.0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="6"/>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="6">
+        <v>57.0</v>
+      </c>
       <c r="B59" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6">
         <v>2687.0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="6"/>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="6">
+        <v>58.0</v>
+      </c>
       <c r="B60" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6">
         <v>1256.0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="6"/>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="6">
+        <v>59.0</v>
+      </c>
       <c r="B61" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="6">
         <v>15897.0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="6"/>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="6">
+        <v>60.0</v>
+      </c>
       <c r="B62" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6">
         <v>18925.0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="6"/>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="6">
+        <v>61.0</v>
+      </c>
       <c r="B63" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6">
         <v>2093.0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="6"/>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>62.0</v>
+      </c>
       <c r="B64" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6">
         <v>8280.0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="6"/>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="6">
+        <v>63.0</v>
+      </c>
       <c r="B65" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="6">
         <v>8280.0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="6"/>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>64.0</v>
+      </c>
       <c r="B66" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="6">
         <v>9982.0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="6"/>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="6">
+        <v>65.0</v>
+      </c>
       <c r="B67" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="6">
         <v>9113.0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="6"/>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="6">
+        <v>66.0</v>
+      </c>
       <c r="B68" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6">
         <v>2602.0</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="6"/>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>67.0</v>
+      </c>
       <c r="B69" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="6">
         <v>1332.0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="6"/>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="6">
+        <v>68.0</v>
+      </c>
       <c r="B70" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="6">
         <v>3957.0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="6"/>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="6">
+        <v>69.0</v>
+      </c>
       <c r="B71" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="6">
         <v>6906.0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="6"/>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="6">
+        <v>70.0</v>
+      </c>
       <c r="B72" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="6">
         <v>276.0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="6"/>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="6">
+        <v>71.0</v>
+      </c>
       <c r="B73" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="6">
         <v>353.0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="6"/>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>72.0</v>
+      </c>
       <c r="B74" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="6">
         <v>499.0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="6"/>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="6">
+        <v>73.0</v>
+      </c>
       <c r="B75" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="6">
         <v>2277.0</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="6"/>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="6">
+        <v>74.0</v>
+      </c>
       <c r="B76" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="6">
         <v>1610.0</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="6"/>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="6">
+        <v>75.0</v>
+      </c>
       <c r="B77" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="6">
         <v>1849.0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="6"/>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="6">
+        <v>76.0</v>
+      </c>
       <c r="B78" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="6">
         <v>3265.0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="6"/>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>77.0</v>
+      </c>
       <c r="B79" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D79" s="6">
         <v>362.0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="6"/>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="6">
+        <v>78.0</v>
+      </c>
       <c r="B80" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="6">
         <v>8280.0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="6"/>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="6">
+        <v>79.0</v>
+      </c>
       <c r="B81" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="6">
         <v>3350.0</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="6"/>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="6">
+        <v>80.0</v>
+      </c>
       <c r="B82" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="6">
         <v>3783.0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="6"/>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="6">
+        <v>81.0</v>
+      </c>
       <c r="B83" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="6">
         <v>1782.0</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="6"/>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="6">
+        <v>82.0</v>
+      </c>
       <c r="B84" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="6">
         <v>589.0</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="6"/>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="6">
+        <v>83.0</v>
+      </c>
       <c r="B85" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="6">
         <v>2265.0</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="6"/>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="6">
+        <v>84.0</v>
+      </c>
       <c r="B86" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="6">
         <v>353.0</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="6"/>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="6">
+        <v>85.0</v>
+      </c>
       <c r="B87" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="6">
         <v>1657.0</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="6"/>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="6">
+        <v>86.0</v>
+      </c>
       <c r="B88" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D88" s="6">
         <v>5521.0</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="6"/>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="6">
+        <v>87.0</v>
+      </c>
       <c r="B89" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="6">
         <v>526.0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="6"/>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="6">
+        <v>88.0</v>
+      </c>
       <c r="B90" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="6">
         <v>336.0</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="6"/>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="6">
+        <v>89.0</v>
+      </c>
       <c r="B91" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="6">
         <v>506.0</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="6"/>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="6">
+        <v>90.0</v>
+      </c>
       <c r="B92" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="6">
         <v>675.0</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="6"/>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="6">
+        <v>91.0</v>
+      </c>
       <c r="B93" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="6">
         <v>608.0</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="6"/>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="6">
+        <v>92.0</v>
+      </c>
       <c r="B94" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="6">
         <v>2433.0</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="6"/>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="6">
+        <v>93.0</v>
+      </c>
       <c r="B95" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="6">
         <v>7529.0</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="6"/>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="6">
+        <v>94.0</v>
+      </c>
       <c r="B96" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="6">
         <v>2782.0</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="6"/>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="6">
+        <v>95.0</v>
+      </c>
       <c r="B97" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="6">
         <v>3974.0</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="6"/>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="6">
+        <v>96.0</v>
+      </c>
       <c r="B98" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="6">
         <v>1800.0</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="6"/>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>97.0</v>
+      </c>
       <c r="B99" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="6">
         <v>10515.0</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="6"/>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="6">
+        <v>98.0</v>
+      </c>
       <c r="B100" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="6">
         <v>5258.0</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="6"/>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>99.0</v>
+      </c>
       <c r="B101" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="6">
         <v>2447.0</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="6"/>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="6">
+        <v>100.0</v>
+      </c>
       <c r="B102" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="6">
         <v>3685.0</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="6"/>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="6">
+        <v>101.0</v>
+      </c>
       <c r="B103" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="6">
         <v>4065.0</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="6"/>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="6">
+        <v>102.0</v>
+      </c>
       <c r="B104" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="6">
         <v>16259.0</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="6"/>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="6">
+        <v>103.0</v>
+      </c>
       <c r="B105" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="6">
         <v>2605.0</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="6"/>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="6">
+        <v>104.0</v>
+      </c>
       <c r="B106" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="6">
         <v>514.0</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="6"/>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="6">
+        <v>105.0</v>
+      </c>
       <c r="B107" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="6">
         <v>23391.0</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="6"/>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="6">
+        <v>106.0</v>
+      </c>
       <c r="B108" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D108" s="6">
         <v>10412.0</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="6"/>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="6">
+        <v>107.0</v>
+      </c>
       <c r="B109" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="6">
         <v>17093.0</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="6"/>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="6">
+        <v>108.0</v>
+      </c>
       <c r="B110" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="6">
         <v>642.0</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="6"/>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="6">
+        <v>109.0</v>
+      </c>
       <c r="B111" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="6">
         <v>5874.0</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="6"/>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="6">
+        <v>110.0</v>
+      </c>
       <c r="B112" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="6">
         <v>237.0</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="6"/>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="6">
+        <v>111.0</v>
+      </c>
       <c r="B113" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="6">
         <v>642.0</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="6"/>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="6">
+        <v>112.0</v>
+      </c>
       <c r="B114" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="6">
         <v>5168.0</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="6"/>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="6">
+        <v>113.0</v>
+      </c>
       <c r="B115" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="6">
         <v>9415.0</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="6"/>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="6">
+        <v>114.0</v>
+      </c>
       <c r="B116" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D116" s="6">
         <v>1222.0</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="6"/>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="6">
+        <v>115.0</v>
+      </c>
       <c r="B117" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="D117" s="6">
         <v>1253.0</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="6"/>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="6">
+        <v>116.0</v>
+      </c>
       <c r="B118" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D118" s="6">
         <v>1081.0</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="6"/>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="6">
+        <v>117.0</v>
+      </c>
       <c r="B119" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D119" s="6">
         <v>2575.0</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="6"/>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="6">
+        <v>118.0</v>
+      </c>
       <c r="B120" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D120" s="6">
         <v>1671.0</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="6"/>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="6">
+        <v>119.0</v>
+      </c>
       <c r="B121" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D121" s="6">
         <v>700.0</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="6"/>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="6">
+        <v>120.0</v>
+      </c>
       <c r="B122" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="6">
         <v>1950.0</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="6"/>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="6">
+        <v>121.0</v>
+      </c>
       <c r="B123" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="6">
         <v>2437.0</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="6"/>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="6">
+        <v>122.0</v>
+      </c>
       <c r="B124" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="6">
         <v>748.0</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="6"/>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="6">
+        <v>123.0</v>
+      </c>
       <c r="B125" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="6">
         <v>1800.0</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="6"/>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="6">
+        <v>124.0</v>
+      </c>
       <c r="B126" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="6">
         <v>1800.0</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="6"/>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="6">
+        <v>125.0</v>
+      </c>
       <c r="B127" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D127" s="6">
         <v>20388.0</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="6"/>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="6">
+        <v>126.0</v>
+      </c>
       <c r="B128" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D128" s="6">
         <v>564.0</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="6"/>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="6">
+        <v>127.0</v>
+      </c>
       <c r="B129" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D129" s="6">
         <v>2254.0</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="6"/>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="6">
+        <v>128.0</v>
+      </c>
       <c r="B130" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="6">
         <v>5184.0</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="6"/>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="6">
+        <v>129.0</v>
+      </c>
       <c r="B131" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="6">
         <v>1020.0</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="6"/>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="6">
+        <v>130.0</v>
+      </c>
       <c r="B132" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="6">
         <v>4745.0</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="6"/>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="6">
+        <v>131.0</v>
+      </c>
       <c r="B133" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="6">
         <v>4478.0</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="6"/>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="6">
+        <v>132.0</v>
+      </c>
       <c r="B134" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="6">
         <v>2809.0</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="6"/>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="6">
+        <v>133.0</v>
+      </c>
       <c r="B135" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="6">
         <v>13748.0</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="6"/>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="6">
+        <v>134.0</v>
+      </c>
       <c r="B136" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="6">
         <v>910.0</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="6"/>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="6">
+        <v>135.0</v>
+      </c>
       <c r="B137" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D137" s="6">
         <v>34319.0</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="6"/>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="6">
+        <v>136.0</v>
+      </c>
       <c r="B138" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="6">
         <v>2536.0</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="6"/>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="6">
+        <v>137.0</v>
+      </c>
       <c r="B139" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="6">
         <v>1788.0</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="6"/>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="6">
+        <v>138.0</v>
+      </c>
       <c r="B140" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="6">
         <v>2416.0</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="6"/>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="6">
+        <v>139.0</v>
+      </c>
       <c r="B141" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="6">
         <v>1098.0</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="6"/>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="6">
+        <v>140.0</v>
+      </c>
       <c r="B142" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="6">
         <v>576.0</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="6"/>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="6">
+        <v>141.0</v>
+      </c>
       <c r="B143" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="6">
         <v>14726.0</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="6"/>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="6">
+        <v>142.0</v>
+      </c>
       <c r="B144" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="6">
         <v>14431.0</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="6"/>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="6">
+        <v>143.0</v>
+      </c>
       <c r="B145" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="6">
         <v>3015.0</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="6"/>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="6">
+        <v>144.0</v>
+      </c>
       <c r="B146" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="6">
         <v>345.0</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="6"/>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="6">
+        <v>145.0</v>
+      </c>
       <c r="B147" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D147" s="6">
         <v>272.0</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="6"/>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="6">
+        <v>146.0</v>
+      </c>
       <c r="B148" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="6">
         <v>1018.0</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="6"/>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="6">
+        <v>147.0</v>
+      </c>
       <c r="B149" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="6">
         <v>560.0</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="6"/>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="6">
+        <v>148.0</v>
+      </c>
       <c r="B150" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D150" s="6">
         <v>5401.0</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="6"/>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="6">
+        <v>149.0</v>
+      </c>
       <c r="B151" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="6">
         <v>2868.0</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="6"/>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="6">
+        <v>150.0</v>
+      </c>
       <c r="B152" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="6">
         <v>4971.0</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="6"/>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="6">
+        <v>151.0</v>
+      </c>
       <c r="B153" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="6">
         <v>460.0</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="6"/>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="6">
+        <v>152.0</v>
+      </c>
       <c r="B154" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="6">
         <v>910.0</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="6"/>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="6">
+        <v>153.0</v>
+      </c>
       <c r="B155" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="6">
         <v>922.0</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="6"/>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="6">
+        <v>154.0</v>
+      </c>
       <c r="B156" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="6">
         <v>1979.0</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="6"/>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="6">
+        <v>155.0</v>
+      </c>
       <c r="B157" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="6">
         <v>595.0</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="6"/>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="6">
+        <v>156.0</v>
+      </c>
       <c r="B158" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="6">
-        <v>7611.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="6"/>
+        <v>288.0</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="6">
+        <v>157.0</v>
+      </c>
       <c r="B159" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="6">
-        <v>288.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="6"/>
+        <v>5494.0</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="6">
+        <v>158.0</v>
+      </c>
       <c r="B160" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="6">
-        <v>5494.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="6"/>
+        <v>1273.0</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="6">
+        <v>159.0</v>
+      </c>
       <c r="B161" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="6">
-        <v>1273.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="6"/>
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="6">
+        <v>160.0</v>
+      </c>
       <c r="B162" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="6">
-        <v>255.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="6"/>
+        <v>11363.0</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="6">
+        <v>161.0</v>
+      </c>
       <c r="B163" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="6">
-        <v>11363.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="6"/>
+        <v>1602.0</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="6">
+        <v>162.0</v>
+      </c>
       <c r="B164" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="6">
-        <v>1602.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="6"/>
+        <v>2180.0</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="6">
+        <v>163.0</v>
+      </c>
       <c r="B165" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="6">
-        <v>2180.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="6"/>
+        <v>2188.0</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="6">
+        <v>164.0</v>
+      </c>
       <c r="B166" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C166" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="D166" s="6">
-        <v>2188.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="6"/>
+        <v>5988.0</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="6">
+        <v>165.0</v>
+      </c>
       <c r="B167" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>182</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C167" s="7"/>
       <c r="D167" s="6">
-        <v>5988.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="6"/>
+        <v>1044.0</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="6">
+        <v>166.0</v>
+      </c>
       <c r="B168" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="6">
-        <v>1044.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="6"/>
+        <v>1436.0</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="6">
+        <v>167.0</v>
+      </c>
       <c r="B169" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="6">
-        <v>1436.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="6"/>
+        <v>1512.0</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="6">
+        <v>168.0</v>
+      </c>
       <c r="B170" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="6">
-        <v>1512.0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="6"/>
+        <v>287.0</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="6">
+        <v>169.0</v>
+      </c>
       <c r="B171" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="6">
-        <v>287.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="6"/>
+        <v>336.0</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="6">
+        <v>170.0</v>
+      </c>
       <c r="B172" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="6">
-        <v>336.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="6"/>
+        <v>4507.0</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="6">
+        <v>171.0</v>
+      </c>
       <c r="B173" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="6">
-        <v>4507.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="6"/>
+        <v>4301.0</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="6">
+        <v>172.0</v>
+      </c>
       <c r="B174" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="6">
-        <v>4301.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="6"/>
+        <v>2271.0</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="6">
+        <v>173.0</v>
+      </c>
       <c r="B175" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="6">
-        <v>2271.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="6"/>
+        <v>413.0</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="6">
+        <v>174.0</v>
+      </c>
       <c r="B176" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="6">
-        <v>413.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="6"/>
+        <v>2230.0</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="6">
+        <v>175.0</v>
+      </c>
       <c r="B177" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="6">
-        <v>2230.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="6"/>
+        <v>2628.0</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="6">
+        <v>176.0</v>
+      </c>
       <c r="B178" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="6">
-        <v>2628.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="6"/>
+        <v>2497.0</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="6">
+        <v>177.0</v>
+      </c>
       <c r="B179" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C179" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="D179" s="6">
-        <v>2497.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="6"/>
+        <v>2172.0</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="6">
+        <v>178.0</v>
+      </c>
       <c r="B180" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>196</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C180" s="7"/>
       <c r="D180" s="6">
-        <v>2172.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="6"/>
+        <v>1673.0</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="6">
+        <v>179.0</v>
+      </c>
       <c r="B181" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="6">
-        <v>1673.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="6"/>
+        <v>1544.0</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="6">
+        <v>180.0</v>
+      </c>
       <c r="B182" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="6">
-        <v>1544.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="6"/>
+        <v>1930.0</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="6">
+        <v>181.0</v>
+      </c>
       <c r="B183" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="6">
-        <v>1930.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="6"/>
+        <v>7221.0</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="6">
+        <v>182.0</v>
+      </c>
       <c r="B184" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="6">
-        <v>7221.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="6"/>
+        <v>4029.0</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="6">
+        <v>183.0</v>
+      </c>
       <c r="B185" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="6">
-        <v>4029.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="6"/>
+        <v>21793.0</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="6">
+        <v>184.0</v>
+      </c>
       <c r="B186" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="6">
-        <v>21793.0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="6"/>
+        <v>9371.0</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="6">
+        <v>185.0</v>
+      </c>
       <c r="B187" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="6">
-        <v>9371.0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="6"/>
+        <v>7041.0</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="6">
+        <v>186.0</v>
+      </c>
       <c r="B188" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="6">
-        <v>7041.0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="6"/>
+        <v>7824.0</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="6">
+        <v>187.0</v>
+      </c>
       <c r="B189" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="6">
-        <v>7824.0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="6"/>
+        <v>2180.0</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="6">
+        <v>188.0</v>
+      </c>
       <c r="B190" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="6">
-        <v>2180.0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="6"/>
+        <v>3048.0</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="6">
+        <v>189.0</v>
+      </c>
       <c r="B191" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="6">
-        <v>3048.0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="6"/>
+        <v>1411.0</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="6">
+        <v>190.0</v>
+      </c>
       <c r="B192" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="6">
-        <v>1411.0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="6"/>
+        <v>3763.0</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="6">
+        <v>191.0</v>
+      </c>
       <c r="B193" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="6">
-        <v>3763.0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="6"/>
+        <v>2523.0</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="6">
+        <v>192.0</v>
+      </c>
       <c r="B194" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="6">
-        <v>2523.0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="6"/>
+        <v>2145.0</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="6">
+        <v>193.0</v>
+      </c>
       <c r="B195" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="6">
-        <v>2145.0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="6"/>
+        <v>2523.0</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="6">
+        <v>194.0</v>
+      </c>
       <c r="B196" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="6">
-        <v>2523.0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="6"/>
+        <v>572.0</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="6">
+        <v>195.0</v>
+      </c>
       <c r="B197" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="6">
-        <v>572.0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="6"/>
+        <v>613.0</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="6">
+        <v>196.0</v>
+      </c>
       <c r="B198" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="6">
-        <v>613.0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="6"/>
+        <v>4190.0</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="6">
+        <v>197.0</v>
+      </c>
       <c r="B199" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="6">
-        <v>4190.0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="6"/>
+        <v>292.0</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="6">
+        <v>198.0</v>
+      </c>
       <c r="B200" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="6">
-        <v>292.0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="6"/>
+        <v>336.0</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="6">
+        <v>199.0</v>
+      </c>
       <c r="B201" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="6">
-        <v>336.0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="6"/>
+        <v>347.0</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="6">
+        <v>200.0</v>
+      </c>
       <c r="B202" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="6">
-        <v>347.0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="6"/>
+        <v>547.0</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="6">
+        <v>201.0</v>
+      </c>
       <c r="B203" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="6">
-        <v>547.0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="6"/>
+        <v>132.0</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="6">
+        <v>202.0</v>
+      </c>
       <c r="B204" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="6">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="6"/>
+        <v>210.0</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="6">
+        <v>203.0</v>
+      </c>
       <c r="B205" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="6">
-        <v>210.0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="6"/>
+        <v>865.0</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="6">
+        <v>204.0</v>
+      </c>
       <c r="B206" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="6">
-        <v>865.0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="6"/>
+        <v>1666.0</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="6">
+        <v>205.0</v>
+      </c>
       <c r="B207" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="6">
-        <v>1666.0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="6"/>
+        <v>1782.0</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="6">
+        <v>206.0</v>
+      </c>
       <c r="B208" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="6">
-        <v>1782.0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="6"/>
+        <v>6792.0</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="6">
+        <v>207.0</v>
+      </c>
       <c r="B209" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="6">
-        <v>6792.0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="6"/>
+        <v>3366.0</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="6">
+        <v>208.0</v>
+      </c>
       <c r="B210" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="6">
-        <v>3366.0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="6"/>
+        <v>383.0</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="6">
+        <v>209.0</v>
+      </c>
       <c r="B211" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="6">
-        <v>383.0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="6"/>
+        <v>748.0</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="6">
+        <v>210.0</v>
+      </c>
       <c r="B212" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="6">
-        <v>748.0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="6"/>
+        <v>2818.0</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="6">
+        <v>211.0</v>
+      </c>
       <c r="B213" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="6">
-        <v>2818.0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="6"/>
+        <v>1436.0</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="6">
+        <v>212.0</v>
+      </c>
       <c r="B214" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C214" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="D214" s="6">
-        <v>1436.0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="6"/>
+        <v>606.0</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="6">
+        <v>213.0</v>
+      </c>
       <c r="B215" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C215" s="7"/>
       <c r="D215" s="6">
-        <v>606.0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="6"/>
+        <v>8856.0</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="6">
+        <v>214.0</v>
+      </c>
       <c r="B216" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="6">
-        <v>8856.0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="6"/>
+        <v>2925.0</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="6">
+        <v>215.0</v>
+      </c>
       <c r="B217" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="6">
-        <v>2925.0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="6"/>
+        <v>267.0</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="6">
+        <v>216.0</v>
+      </c>
       <c r="B218" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="6">
-        <v>267.0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="6"/>
+        <v>1069.0</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="6">
+        <v>217.0</v>
+      </c>
       <c r="B219" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="6">
-        <v>1069.0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="6"/>
+        <v>534.0</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="6">
+        <v>218.0</v>
+      </c>
       <c r="B220" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C220" s="7"/>
       <c r="D220" s="6">
-        <v>534.0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="6"/>
+        <v>855.0</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="6">
+        <v>219.0</v>
+      </c>
       <c r="B221" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C221" s="7"/>
       <c r="D221" s="6">
-        <v>855.0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="6"/>
+        <v>713.0</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="6">
+        <v>220.0</v>
+      </c>
       <c r="B222" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="6">
-        <v>713.0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="6"/>
+        <v>4276.0</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="6">
+        <v>221.0</v>
+      </c>
       <c r="B223" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C223" s="7"/>
       <c r="D223" s="6">
-        <v>4276.0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="6"/>
+        <v>214.0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="6">
+        <v>222.0</v>
+      </c>
       <c r="B224" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="6">
-        <v>214.0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="6"/>
+        <v>267.0</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="6">
+        <v>223.0</v>
+      </c>
       <c r="B225" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="6">
-        <v>267.0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="6"/>
+        <v>195.0</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="6">
+        <v>224.0</v>
+      </c>
       <c r="B226" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="6">
-        <v>195.0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="6"/>
+        <v>126505.0</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="6">
+        <v>225.0</v>
+      </c>
       <c r="B227" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="6">
-        <v>126505.0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="6"/>
+        <v>9280.0</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="6">
+        <v>226.0</v>
+      </c>
       <c r="B228" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="6">
-        <v>9280.0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="6"/>
+        <v>4918.0</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="6">
+        <v>227.0</v>
+      </c>
       <c r="B229" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C229" s="7"/>
       <c r="D229" s="6">
-        <v>4918.0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="6"/>
+        <v>235.0</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="6">
+        <v>228.0</v>
+      </c>
       <c r="B230" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="6">
-        <v>235.0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="6"/>
+        <v>1827.0</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="6">
+        <v>229.0</v>
+      </c>
       <c r="B231" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="6">
-        <v>1827.0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="6"/>
+        <v>1849.0</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="6">
+        <v>230.0</v>
+      </c>
       <c r="B232" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="6">
-        <v>1849.0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="6"/>
+        <v>4189.0</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="6">
+        <v>231.0</v>
+      </c>
       <c r="B233" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="6">
-        <v>4189.0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="6"/>
+        <v>2036.0</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="6">
+        <v>232.0</v>
+      </c>
       <c r="B234" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="6">
-        <v>2036.0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="6"/>
+        <v>1436.0</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="6">
+        <v>233.0</v>
+      </c>
       <c r="B235" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C235" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="D235" s="6">
-        <v>1436.0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="6"/>
+        <v>869.0</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="6">
+        <v>234.0</v>
+      </c>
       <c r="B236" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>254</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C236" s="7"/>
       <c r="D236" s="6">
-        <v>869.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C237" s="7"/>
-      <c r="D237" s="6">
-        <v>343.0</v>
-      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" s="10"/>
     </row>
     <row r="238">
       <c r="C238" s="9"/>
@@ -6396,10 +6861,6 @@
     <row r="999">
       <c r="C999" s="9"/>
       <c r="D999" s="10"/>
-    </row>
-    <row r="1000">
-      <c r="C1000" s="9"/>
-      <c r="D1000" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Data/source/English/Water footprint product list.xlsx
+++ b/Data/source/English/Water footprint product list.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="258">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Product</t>
   </si>
@@ -241,10 +244,10 @@
     <t>Cotton seeds</t>
   </si>
   <si>
-    <t>Cotton-seed oil</t>
-  </si>
-  <si>
-    <t>Cow peas, dry</t>
+    <t>Cottonseed oil</t>
+  </si>
+  <si>
+    <t>Cowpeas, dry</t>
   </si>
   <si>
     <t>Cranberries</t>
@@ -322,6 +325,9 @@
     <t>Grapes, dried</t>
   </si>
   <si>
+    <t>Raisin</t>
+  </si>
+  <si>
     <t>Groundnut oil</t>
   </si>
   <si>
@@ -589,7 +595,7 @@
     <t>Raspberries</t>
   </si>
   <si>
-    <t>Rice</t>
+    <t>Rice groats and meal</t>
   </si>
   <si>
     <t>Rice flour</t>
@@ -877,22 +883,24 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.86"/>
+    <col customWidth="1" min="1" max="1" width="24.29"/>
     <col customWidth="1" min="2" max="2" width="24.43"/>
     <col customWidth="1" min="3" max="3" width="28.57"/>
     <col customWidth="1" min="4" max="4" width="14.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -924,7 +932,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -956,7 +964,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6">
@@ -968,7 +976,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6">
@@ -980,7 +988,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6">
@@ -992,7 +1000,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6">
@@ -1004,7 +1012,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6">
@@ -1016,7 +1024,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6">
@@ -1028,7 +1036,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6">
@@ -1040,7 +1048,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6">
@@ -1052,7 +1060,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6">
@@ -1064,7 +1072,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6">
@@ -1076,7 +1084,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6">
@@ -1088,7 +1096,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6">
@@ -1100,7 +1108,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6">
@@ -1112,7 +1120,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6">
@@ -1124,7 +1132,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6">
@@ -1136,7 +1144,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6">
@@ -1148,7 +1156,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6">
@@ -1160,7 +1168,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6">
@@ -1172,7 +1180,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6">
@@ -1184,10 +1192,10 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="6">
         <v>15415.0</v>
@@ -1198,7 +1206,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6">
@@ -1210,7 +1218,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6">
@@ -1222,7 +1230,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6">
@@ -1234,10 +1242,10 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="6">
         <v>2018.0</v>
@@ -1248,7 +1256,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6">
@@ -1260,7 +1268,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6">
@@ -1272,7 +1280,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6">
@@ -1284,7 +1292,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6">
@@ -1296,7 +1304,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6">
@@ -1308,7 +1316,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6">
@@ -1320,7 +1328,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6">
@@ -1332,7 +1340,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6">
@@ -1344,7 +1352,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6">
@@ -1356,7 +1364,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6">
@@ -1368,7 +1376,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6">
@@ -1381,7 +1389,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6">
@@ -1393,7 +1401,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6">
@@ -1405,7 +1413,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6">
@@ -1417,7 +1425,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6">
@@ -1429,7 +1437,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6">
@@ -1441,7 +1449,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6">
@@ -1453,7 +1461,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6">
@@ -1465,10 +1473,10 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="6">
         <v>4177.0</v>
@@ -1479,7 +1487,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6">
@@ -1491,7 +1499,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6">
@@ -1503,7 +1511,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6">
@@ -1515,7 +1523,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6">
@@ -1527,10 +1535,10 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="6">
         <v>15526.0</v>
@@ -1541,7 +1549,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6">
@@ -1553,7 +1561,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6">
@@ -1565,7 +1573,7 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6">
@@ -1577,7 +1585,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6">
@@ -1589,7 +1597,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6">
@@ -1601,7 +1609,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6">
@@ -1613,10 +1621,10 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57" s="6">
         <v>2449.0</v>
@@ -1627,10 +1635,10 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" s="6">
         <v>4490.0</v>
@@ -1641,7 +1649,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6">
@@ -1653,7 +1661,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6">
@@ -1665,7 +1673,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="6">
@@ -1677,7 +1685,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6">
@@ -1689,7 +1697,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6">
@@ -1701,7 +1709,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6">
@@ -1713,7 +1721,7 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="6">
@@ -1725,7 +1733,7 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="6">
@@ -1737,7 +1745,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="6">
@@ -1749,7 +1757,7 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6">
@@ -1761,7 +1769,7 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="6">
@@ -1773,7 +1781,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="6">
@@ -1785,7 +1793,7 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="6">
@@ -1797,7 +1805,7 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="6">
@@ -1809,7 +1817,7 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="6">
@@ -1821,7 +1829,7 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="6">
@@ -1833,7 +1841,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="6">
@@ -1845,7 +1853,7 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="6">
@@ -1857,7 +1865,7 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="6">
@@ -1869,7 +1877,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="6">
@@ -1881,10 +1889,10 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D79" s="6">
         <v>362.0</v>
@@ -1895,7 +1903,7 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="6">
@@ -1907,7 +1915,7 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="6">
@@ -1919,7 +1927,7 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="6">
@@ -1931,7 +1939,7 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="6">
@@ -1943,7 +1951,7 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="6">
@@ -1955,7 +1963,7 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="6">
@@ -1967,7 +1975,7 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="6">
@@ -1979,7 +1987,7 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="6">
@@ -1991,10 +1999,10 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D88" s="6">
         <v>5521.0</v>
@@ -2005,7 +2013,7 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="6">
@@ -2017,7 +2025,7 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="6">
@@ -2029,7 +2037,7 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="6">
@@ -2041,7 +2049,7 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="6">
@@ -2053,7 +2061,7 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="6">
@@ -2065,9 +2073,11 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="D94" s="6">
         <v>2433.0</v>
       </c>
@@ -2077,7 +2087,7 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="6">
@@ -2089,7 +2099,7 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="6">
@@ -2101,7 +2111,7 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="6">
@@ -2113,7 +2123,7 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="6">
@@ -2125,7 +2135,7 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="6">
@@ -2137,7 +2147,7 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="6">
@@ -2149,7 +2159,7 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="6">
@@ -2161,7 +2171,7 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="6">
@@ -2173,7 +2183,7 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="6">
@@ -2185,7 +2195,7 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="6">
@@ -2197,7 +2207,7 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="6">
@@ -2209,7 +2219,7 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="6">
@@ -2221,7 +2231,7 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="6">
@@ -2233,10 +2243,10 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D108" s="6">
         <v>10412.0</v>
@@ -2247,7 +2257,7 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="6">
@@ -2259,7 +2269,7 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="6">
@@ -2271,7 +2281,7 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="6">
@@ -2283,7 +2293,7 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="6">
@@ -2295,7 +2305,7 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="6">
@@ -2307,7 +2317,7 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="6">
@@ -2319,7 +2329,7 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="6">
@@ -2331,10 +2341,10 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D116" s="6">
         <v>1222.0</v>
@@ -2345,10 +2355,10 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D117" s="6">
         <v>1253.0</v>
@@ -2359,10 +2369,10 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="D118" s="6">
         <v>1081.0</v>
@@ -2373,10 +2383,10 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D119" s="6">
         <v>2575.0</v>
@@ -2387,10 +2397,10 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D120" s="6">
         <v>1671.0</v>
@@ -2401,10 +2411,10 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D121" s="6">
         <v>700.0</v>
@@ -2415,7 +2425,7 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="6">
@@ -2427,7 +2437,7 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="6">
@@ -2439,7 +2449,7 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="6">
@@ -2451,7 +2461,7 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="6">
@@ -2463,7 +2473,7 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="6">
@@ -2475,10 +2485,10 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D127" s="6">
         <v>20388.0</v>
@@ -2489,10 +2499,10 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D128" s="6">
         <v>564.0</v>
@@ -2503,10 +2513,10 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D129" s="6">
         <v>2254.0</v>
@@ -2517,7 +2527,7 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="6">
@@ -2529,7 +2539,7 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="6">
@@ -2541,7 +2551,7 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="6">
@@ -2553,7 +2563,7 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="6">
@@ -2565,7 +2575,7 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="6">
@@ -2577,7 +2587,7 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="6">
@@ -2589,7 +2599,7 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="6">
@@ -2601,10 +2611,10 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D137" s="6">
         <v>34319.0</v>
@@ -2615,7 +2625,7 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="6">
@@ -2627,7 +2637,7 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="6">
@@ -2639,7 +2649,7 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="6">
@@ -2651,7 +2661,7 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="6">
@@ -2663,7 +2673,7 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="6">
@@ -2675,7 +2685,7 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="6">
@@ -2687,7 +2697,7 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="6">
@@ -2699,7 +2709,7 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="6">
@@ -2711,7 +2721,7 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="6">
@@ -2723,10 +2733,10 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D147" s="6">
         <v>272.0</v>
@@ -2737,7 +2747,7 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="6">
@@ -2749,7 +2759,7 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="6">
@@ -2761,10 +2771,10 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D150" s="6">
         <v>5401.0</v>
@@ -2775,7 +2785,7 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="6">
@@ -2787,7 +2797,7 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="6">
@@ -2799,7 +2809,7 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="6">
@@ -2811,7 +2821,7 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="6">
@@ -2823,7 +2833,7 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="6">
@@ -2835,7 +2845,7 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="6">
@@ -2847,7 +2857,7 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="6">
@@ -2859,7 +2869,7 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="6">
@@ -2871,7 +2881,7 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="6">
@@ -2883,7 +2893,7 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="6">
@@ -2895,7 +2905,7 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="6">
@@ -2907,7 +2917,7 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="6">
@@ -2919,7 +2929,7 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="6">
@@ -2931,7 +2941,7 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="6">
@@ -2943,7 +2953,7 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="6">
@@ -2955,10 +2965,10 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D166" s="6">
         <v>5988.0</v>
@@ -2969,7 +2979,7 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="6">
@@ -2981,7 +2991,7 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="6">
@@ -2993,7 +3003,7 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="6">
@@ -3005,7 +3015,7 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="6">
@@ -3017,7 +3027,7 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="6">
@@ -3029,7 +3039,7 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="6">
@@ -3041,7 +3051,7 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="6">
@@ -3053,7 +3063,7 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="6">
@@ -3065,7 +3075,7 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="6">
@@ -3077,7 +3087,7 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="6">
@@ -3089,7 +3099,7 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="6">
@@ -3101,7 +3111,7 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="6">
@@ -3113,10 +3123,10 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D179" s="6">
         <v>2172.0</v>
@@ -3127,7 +3137,7 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="6">
@@ -3139,7 +3149,7 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="6">
@@ -3151,7 +3161,7 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="6">
@@ -3163,7 +3173,7 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="6">
@@ -3175,7 +3185,7 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="6">
@@ -3187,7 +3197,7 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="6">
@@ -3199,7 +3209,7 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="6">
@@ -3211,7 +3221,7 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="6">
@@ -3223,7 +3233,7 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="6">
@@ -3235,7 +3245,7 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="6">
@@ -3247,7 +3257,7 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="6">
@@ -3259,7 +3269,7 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="6">
@@ -3271,7 +3281,7 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="6">
@@ -3283,7 +3293,7 @@
         <v>191.0</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="6">
@@ -3295,7 +3305,7 @@
         <v>192.0</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="6">
@@ -3307,7 +3317,7 @@
         <v>193.0</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="6">
@@ -3319,7 +3329,7 @@
         <v>194.0</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="6">
@@ -3331,7 +3341,7 @@
         <v>195.0</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="6">
@@ -3343,7 +3353,7 @@
         <v>196.0</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="6">
@@ -3355,7 +3365,7 @@
         <v>197.0</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="6">
@@ -3367,7 +3377,7 @@
         <v>198.0</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="6">
@@ -3379,7 +3389,7 @@
         <v>199.0</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="6">
@@ -3391,7 +3401,7 @@
         <v>200.0</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="6">
@@ -3403,7 +3413,7 @@
         <v>201.0</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="6">
@@ -3415,7 +3425,7 @@
         <v>202.0</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="6">
@@ -3427,7 +3437,7 @@
         <v>203.0</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="6">
@@ -3439,7 +3449,7 @@
         <v>204.0</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="6">
@@ -3451,7 +3461,7 @@
         <v>205.0</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="6">
@@ -3463,7 +3473,7 @@
         <v>206.0</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="6">
@@ -3475,7 +3485,7 @@
         <v>207.0</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="6">
@@ -3487,7 +3497,7 @@
         <v>208.0</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="6">
@@ -3499,7 +3509,7 @@
         <v>209.0</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="6">
@@ -3511,7 +3521,7 @@
         <v>210.0</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="6">
@@ -3523,7 +3533,7 @@
         <v>211.0</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="6">
@@ -3535,10 +3545,10 @@
         <v>212.0</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D214" s="6">
         <v>606.0</v>
@@ -3549,7 +3559,7 @@
         <v>213.0</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="6">
@@ -3561,7 +3571,7 @@
         <v>214.0</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="6">
@@ -3573,7 +3583,7 @@
         <v>215.0</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="6">
@@ -3585,7 +3595,7 @@
         <v>216.0</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="6">
@@ -3597,7 +3607,7 @@
         <v>217.0</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="6">
@@ -3609,7 +3619,7 @@
         <v>218.0</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C220" s="7"/>
       <c r="D220" s="6">
@@ -3621,7 +3631,7 @@
         <v>219.0</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C221" s="7"/>
       <c r="D221" s="6">
@@ -3633,7 +3643,7 @@
         <v>220.0</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="6">
@@ -3645,7 +3655,7 @@
         <v>221.0</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C223" s="7"/>
       <c r="D223" s="6">
@@ -3657,7 +3667,7 @@
         <v>222.0</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="6">
@@ -3669,7 +3679,7 @@
         <v>223.0</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="6">
@@ -3681,7 +3691,7 @@
         <v>224.0</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="6">
@@ -3693,7 +3703,7 @@
         <v>225.0</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="6">
@@ -3705,7 +3715,7 @@
         <v>226.0</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="6">
@@ -3717,7 +3727,7 @@
         <v>227.0</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C229" s="7"/>
       <c r="D229" s="6">
@@ -3729,7 +3739,7 @@
         <v>228.0</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="6">
@@ -3741,7 +3751,7 @@
         <v>229.0</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="6">
@@ -3753,7 +3763,7 @@
         <v>230.0</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="6">
@@ -3765,7 +3775,7 @@
         <v>231.0</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="6">
@@ -3777,7 +3787,7 @@
         <v>232.0</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="6">
@@ -3789,10 +3799,10 @@
         <v>233.0</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D235" s="6">
         <v>869.0</v>
@@ -3803,7 +3813,7 @@
         <v>234.0</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="6">

--- a/Data/source/English/Water footprint product list.xlsx
+++ b/Data/source/English/Water footprint product list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="265">
   <si>
     <t>ID</t>
   </si>
@@ -139,9 +139,24 @@
     <t>Cashew nuts</t>
   </si>
   <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>Manioc</t>
+  </si>
+  <si>
     <t>Cassava flour</t>
   </si>
   <si>
+    <t>Cassava starch</t>
+  </si>
+  <si>
+    <t>Cassava, dried</t>
+  </si>
+  <si>
+    <t>Cassava, tapioca</t>
+  </si>
+  <si>
     <t>Castor oil</t>
   </si>
   <si>
@@ -244,6 +259,12 @@
     <t>Cotton seeds</t>
   </si>
   <si>
+    <t>Cottonseed</t>
+  </si>
+  <si>
+    <t>Seed cotton</t>
+  </si>
+  <si>
     <t>Cottonseed oil</t>
   </si>
   <si>
@@ -262,12 +283,6 @@
     <t>Dates</t>
   </si>
   <si>
-    <t>Dried cassava</t>
-  </si>
-  <si>
-    <t>Dry pasta</t>
-  </si>
-  <si>
     <t>Egg</t>
   </si>
   <si>
@@ -322,267 +337,273 @@
     <t>Grapes</t>
   </si>
   <si>
+    <t>Green beans</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Guavas</t>
+  </si>
+  <si>
+    <t>Hazelnuts, shelled or peeled</t>
+  </si>
+  <si>
+    <t>Hazelnuts, with shell</t>
+  </si>
+  <si>
+    <t>Hemp fibre</t>
+  </si>
+  <si>
+    <t>Hempseed</t>
+  </si>
+  <si>
+    <t>Hop cones</t>
+  </si>
+  <si>
+    <t>Hop extract</t>
+  </si>
+  <si>
+    <t>Jute</t>
+  </si>
+  <si>
+    <t>Kiwi fruit</t>
+  </si>
+  <si>
+    <t>Kola nuts</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>Sheep meat, hogget, mutton</t>
+  </si>
+  <si>
+    <t>Leather from beef cattle</t>
+  </si>
+  <si>
+    <t>Lemons</t>
+  </si>
+  <si>
+    <t>Lentils</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Limes</t>
+  </si>
+  <si>
+    <t>Linseed</t>
+  </si>
+  <si>
+    <t>Linseed oil</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Maize flour</t>
+  </si>
+  <si>
+    <t>Maize groats and meal</t>
+  </si>
+  <si>
+    <t>Maize oil</t>
+  </si>
+  <si>
+    <t>Maize starch</t>
+  </si>
+  <si>
+    <t>Maize, green</t>
+  </si>
+  <si>
+    <t>Malt, not roasted</t>
+  </si>
+  <si>
+    <t>Malt, roasted</t>
+  </si>
+  <si>
+    <t>Mandarins</t>
+  </si>
+  <si>
+    <t>Mangoes</t>
+  </si>
+  <si>
+    <t>Mangosteens</t>
+  </si>
+  <si>
+    <t>Manila fibre</t>
+  </si>
+  <si>
+    <t>Abaca</t>
+  </si>
+  <si>
+    <t>Melon seed</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Milk powder</t>
+  </si>
+  <si>
+    <t>Millet</t>
+  </si>
+  <si>
+    <t>Mustard seeds</t>
+  </si>
+  <si>
+    <t>Natural rubber</t>
+  </si>
+  <si>
+    <t>Nectarines</t>
+  </si>
+  <si>
+    <t>Nutmeg</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>Oat groats and meal</t>
+  </si>
+  <si>
+    <t>Oats</t>
+  </si>
+  <si>
+    <t>Oats, rolled or flaked grains</t>
+  </si>
+  <si>
+    <t>Oil palm</t>
+  </si>
+  <si>
+    <t>Okra</t>
+  </si>
+  <si>
+    <t>Olive oil</t>
+  </si>
+  <si>
+    <t>Olive oil, virgin</t>
+  </si>
+  <si>
+    <t>Olives</t>
+  </si>
+  <si>
+    <t>Onions, dry</t>
+  </si>
+  <si>
+    <t>Onions, green</t>
+  </si>
+  <si>
+    <t>Shallots</t>
+  </si>
+  <si>
+    <t>Orange juice</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Palm kernel oil</t>
+  </si>
+  <si>
+    <t>Babassu</t>
+  </si>
+  <si>
+    <t>Palm nuts and kernels</t>
+  </si>
+  <si>
+    <t>Palm oil</t>
+  </si>
+  <si>
+    <t>Papayas</t>
+  </si>
+  <si>
+    <t>Pasta, dry</t>
+  </si>
+  <si>
+    <t>Peaches</t>
+  </si>
+  <si>
+    <t>Peanut oil</t>
+  </si>
+  <si>
+    <t>Groundnuts</t>
+  </si>
+  <si>
+    <t>Peanuts in shell</t>
+  </si>
+  <si>
+    <t>Peanuts shelled</t>
+  </si>
+  <si>
+    <t>Pears</t>
+  </si>
+  <si>
+    <t>Peas, dry</t>
+  </si>
+  <si>
+    <t>Peas, green</t>
+  </si>
+  <si>
+    <t>Peppermint</t>
+  </si>
+  <si>
+    <t>Pigeon peas</t>
+  </si>
+  <si>
+    <t>Pineapple juice</t>
+  </si>
+  <si>
+    <t>Pineapples</t>
+  </si>
+  <si>
+    <t>Pistachios</t>
+  </si>
+  <si>
+    <t>Plantains</t>
+  </si>
+  <si>
+    <t>Plums</t>
+  </si>
+  <si>
+    <t>Poppy seeds</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>Pig meat, ham, bacon, sausage</t>
+  </si>
+  <si>
+    <t>Potato flakes</t>
+  </si>
+  <si>
+    <t>Potato flour and meal</t>
+  </si>
+  <si>
+    <t>Potato starch</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Potatoes, tapioca</t>
+  </si>
+  <si>
+    <t>Pumpkins</t>
+  </si>
+  <si>
+    <t>Raisin</t>
+  </si>
+  <si>
     <t>Grapes, dried</t>
   </si>
   <si>
-    <t>Raisin</t>
-  </si>
-  <si>
-    <t>Groundnut oil</t>
-  </si>
-  <si>
-    <t>Groundnuts in shell</t>
-  </si>
-  <si>
-    <t>Groundnuts shelled</t>
-  </si>
-  <si>
-    <t>Guavas</t>
-  </si>
-  <si>
-    <t>Hazelnuts, shelled or peeled</t>
-  </si>
-  <si>
-    <t>Hazelnuts, with shell</t>
-  </si>
-  <si>
-    <t>Hemp fibre</t>
-  </si>
-  <si>
-    <t>Hempseed</t>
-  </si>
-  <si>
-    <t>Hop cones</t>
-  </si>
-  <si>
-    <t>Hop extract</t>
-  </si>
-  <si>
-    <t>Jute</t>
-  </si>
-  <si>
-    <t>Kiwi fruit</t>
-  </si>
-  <si>
-    <t>Kola nuts</t>
-  </si>
-  <si>
-    <t>Lamb</t>
-  </si>
-  <si>
-    <t>Sheep meat, hogget, mutton</t>
-  </si>
-  <si>
-    <t>Leather from beef cattle</t>
-  </si>
-  <si>
-    <t>Lemons</t>
-  </si>
-  <si>
-    <t>Lentils</t>
-  </si>
-  <si>
-    <t>Lettuce</t>
-  </si>
-  <si>
-    <t>Limes</t>
-  </si>
-  <si>
-    <t>Linseed</t>
-  </si>
-  <si>
-    <t>Linseed oil</t>
-  </si>
-  <si>
-    <t>Maize</t>
-  </si>
-  <si>
-    <t>Corn</t>
-  </si>
-  <si>
-    <t>Maize flour</t>
-  </si>
-  <si>
-    <t>Maize groats and meal</t>
-  </si>
-  <si>
-    <t>Maize oil</t>
-  </si>
-  <si>
-    <t>Maize starch</t>
-  </si>
-  <si>
-    <t>Maize, green</t>
-  </si>
-  <si>
-    <t>Malt, not roasted</t>
-  </si>
-  <si>
-    <t>Malt, roasted</t>
-  </si>
-  <si>
-    <t>Mandarins</t>
-  </si>
-  <si>
-    <t>Mangoes</t>
-  </si>
-  <si>
-    <t>Mangosteens</t>
-  </si>
-  <si>
-    <t>Manila fibre</t>
-  </si>
-  <si>
-    <t>Abaca</t>
-  </si>
-  <si>
-    <t>Manioc</t>
-  </si>
-  <si>
-    <t>Cassava</t>
-  </si>
-  <si>
-    <t>Manioc starch</t>
-  </si>
-  <si>
-    <t>Melon seed</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Milk powder</t>
-  </si>
-  <si>
-    <t>Millet</t>
-  </si>
-  <si>
-    <t>Mustard seeds</t>
-  </si>
-  <si>
-    <t>Natural rubber</t>
-  </si>
-  <si>
-    <t>Nectarines</t>
-  </si>
-  <si>
-    <t>Nutmeg</t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>Oat groats and meal</t>
-  </si>
-  <si>
-    <t>Oats</t>
-  </si>
-  <si>
-    <t>Oats, rolled or flaked grains</t>
-  </si>
-  <si>
-    <t>Oil palm</t>
-  </si>
-  <si>
-    <t>Okra</t>
-  </si>
-  <si>
-    <t>Olive oil</t>
-  </si>
-  <si>
-    <t>Olive oil, virgin</t>
-  </si>
-  <si>
-    <t>Olives</t>
-  </si>
-  <si>
-    <t>Onions, dry</t>
-  </si>
-  <si>
-    <t>Onions, green</t>
-  </si>
-  <si>
-    <t>Shallots</t>
-  </si>
-  <si>
-    <t>Orange juice</t>
-  </si>
-  <si>
-    <t>Oranges</t>
-  </si>
-  <si>
-    <t>Palm kernel oil</t>
-  </si>
-  <si>
-    <t>Babassu</t>
-  </si>
-  <si>
-    <t>Palm nuts and kernels</t>
-  </si>
-  <si>
-    <t>Palm oil</t>
-  </si>
-  <si>
-    <t>Papayas</t>
-  </si>
-  <si>
-    <t>Peaches</t>
-  </si>
-  <si>
-    <t>Pears</t>
-  </si>
-  <si>
-    <t>Peas, dry</t>
-  </si>
-  <si>
-    <t>Peas, green</t>
-  </si>
-  <si>
-    <t>Peppermint</t>
-  </si>
-  <si>
-    <t>Pigeon peas</t>
-  </si>
-  <si>
-    <t>Pineapple juice</t>
-  </si>
-  <si>
-    <t>Pineapples</t>
-  </si>
-  <si>
-    <t>Pistachios</t>
-  </si>
-  <si>
-    <t>Plantains</t>
-  </si>
-  <si>
-    <t>Plums</t>
-  </si>
-  <si>
-    <t>Poppy seeds</t>
-  </si>
-  <si>
-    <t>Pork</t>
-  </si>
-  <si>
-    <t>Pig meat, ham, bacon, sausage</t>
-  </si>
-  <si>
-    <t>Potato flakes</t>
-  </si>
-  <si>
-    <t>Potato flour and meal</t>
-  </si>
-  <si>
-    <t>Potato starch</t>
-  </si>
-  <si>
-    <t>Potatoes</t>
-  </si>
-  <si>
-    <t>Pumpkins</t>
-  </si>
-  <si>
     <t>Ramie</t>
   </si>
   <si>
@@ -595,12 +616,12 @@
     <t>Raspberries</t>
   </si>
   <si>
+    <t>Rice flour</t>
+  </si>
+  <si>
     <t>Rice groats and meal</t>
   </si>
   <si>
-    <t>Rice flour</t>
-  </si>
-  <si>
     <t>Rice, broken</t>
   </si>
   <si>
@@ -622,9 +643,6 @@
     <t>Safflower seeds</t>
   </si>
   <si>
-    <t>Seed cotton</t>
-  </si>
-  <si>
     <t>Sesame oil</t>
   </si>
   <si>
@@ -649,24 +667,24 @@
     <t>Soy milk</t>
   </si>
   <si>
-    <t>Soya bean flour and meals</t>
-  </si>
-  <si>
-    <t>Soya beans</t>
-  </si>
-  <si>
-    <t>Soya curd</t>
-  </si>
-  <si>
-    <t>Soya paste</t>
-  </si>
-  <si>
-    <t>Soya sauce</t>
+    <t>Soy sauce</t>
+  </si>
+  <si>
+    <t>Soya</t>
+  </si>
+  <si>
+    <t>Soybean flour and meals</t>
   </si>
   <si>
     <t>Soybean oil</t>
   </si>
   <si>
+    <t>Soybean paste</t>
+  </si>
+  <si>
+    <t>Soybeans</t>
+  </si>
+  <si>
     <t>Spinach</t>
   </si>
   <si>
@@ -676,24 +694,24 @@
     <t>Strawberries</t>
   </si>
   <si>
-    <t>String beans</t>
-  </si>
-  <si>
     <t>Sugar beet</t>
   </si>
   <si>
+    <t>Sugar, raw (beet)</t>
+  </si>
+  <si>
+    <t>Sugar, raw (cane)</t>
+  </si>
+  <si>
+    <t>Sugar, refined</t>
+  </si>
+  <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
     <t>Sugar cane</t>
   </si>
   <si>
-    <t>Sugar, raw (beet)</t>
-  </si>
-  <si>
-    <t>Sugar, raw (cane)</t>
-  </si>
-  <si>
-    <t>Sugar, refined</t>
-  </si>
-  <si>
     <t>Sunflower seed oil</t>
   </si>
   <si>
@@ -706,12 +724,6 @@
     <t>Tangerines</t>
   </si>
   <si>
-    <t>Tapioca of cassava</t>
-  </si>
-  <si>
-    <t>Tapioca of potatoes</t>
-  </si>
-  <si>
     <t>Taro</t>
   </si>
   <si>
@@ -724,6 +736,12 @@
     <t>Tobacco</t>
   </si>
   <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>Soya, soybean curd</t>
+  </si>
+  <si>
     <t>Tomato juice</t>
   </si>
   <si>
@@ -766,13 +784,16 @@
     <t>Wheat</t>
   </si>
   <si>
+    <t>Wheat bran</t>
+  </si>
+  <si>
+    <t>Pellets</t>
+  </si>
+  <si>
     <t>Wheat flour</t>
   </si>
   <si>
     <t>Wheat gluten</t>
-  </si>
-  <si>
-    <t>Wheat pellets</t>
   </si>
   <si>
     <t>Wheat starch</t>
@@ -883,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.29"/>
+    <col customWidth="1" min="1" max="1" width="10.29"/>
     <col customWidth="1" min="2" max="2" width="24.43"/>
     <col customWidth="1" min="3" max="3" width="28.57"/>
     <col customWidth="1" min="4" max="4" width="14.57"/>
@@ -1386,736 +1407,742 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="6">
-        <v>36.0</v>
+        <v>126.0</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D38" s="6">
-        <v>1878.0</v>
+        <v>564.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="6">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6">
-        <v>24740.0</v>
+        <v>1878.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="6">
-        <v>38.0</v>
+        <v>127.0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D40" s="6">
-        <v>9896.0</v>
+        <v>2254.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="6">
-        <v>39.0</v>
+        <v>74.0</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6">
-        <v>285.0</v>
+        <v>1610.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="6">
-        <v>40.0</v>
+        <v>210.0</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6">
-        <v>5060.0</v>
+        <v>2818.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="6">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6">
-        <v>1604.0</v>
+        <v>24740.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="6">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6">
-        <v>2750.0</v>
+        <v>9896.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="6">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="C45" s="7"/>
       <c r="D45" s="6">
-        <v>4177.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="6">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6">
-        <v>4325.0</v>
+        <v>5060.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="6">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6">
-        <v>7365.0</v>
+        <v>1604.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="6">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6">
-        <v>379.0</v>
+        <v>2750.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="6">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D49" s="6">
-        <v>17196.0</v>
+        <v>4177.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="6">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="C50" s="7"/>
       <c r="D50" s="6">
-        <v>15526.0</v>
+        <v>4325.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="6">
-        <v>49.0</v>
+        <v>45.0</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6">
-        <v>748.0</v>
+        <v>7365.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="6">
-        <v>50.0</v>
+        <v>46.0</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6">
-        <v>61205.0</v>
+        <v>379.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="6">
-        <v>51.0</v>
+        <v>47.0</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6">
-        <v>19928.0</v>
+        <v>17196.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="6">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D54" s="6">
-        <v>33938.0</v>
+        <v>15526.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="6">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6">
-        <v>24238.0</v>
+        <v>748.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="6">
-        <v>54.0</v>
+        <v>50.0</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6">
-        <v>15636.0</v>
+        <v>61205.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="6">
-        <v>55.0</v>
+        <v>51.0</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="C57" s="7"/>
       <c r="D57" s="6">
-        <v>2449.0</v>
+        <v>19928.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="6">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="C58" s="7"/>
       <c r="D58" s="6">
-        <v>4490.0</v>
+        <v>33938.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="6">
-        <v>57.0</v>
+        <v>53.0</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6">
-        <v>2687.0</v>
+        <v>24238.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="6">
-        <v>58.0</v>
+        <v>54.0</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6">
-        <v>1256.0</v>
+        <v>15636.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="6">
-        <v>59.0</v>
+        <v>55.0</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="7"/>
       <c r="D61" s="6">
-        <v>15897.0</v>
+        <v>2449.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="6">
-        <v>60.0</v>
+        <v>56.0</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="7"/>
+      <c r="C62" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="D62" s="6">
-        <v>18925.0</v>
+        <v>4490.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="6">
-        <v>61.0</v>
+        <v>57.0</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6">
-        <v>2093.0</v>
+        <v>2687.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="6">
-        <v>62.0</v>
+        <v>58.0</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6">
-        <v>8280.0</v>
+        <v>1256.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="6">
-        <v>63.0</v>
+        <v>59.0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="6">
-        <v>8280.0</v>
+        <v>15897.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="6">
-        <v>64.0</v>
+        <v>60.0</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="6">
-        <v>9982.0</v>
+        <v>18925.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="6">
-        <v>65.0</v>
+        <v>61.0</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="6">
-        <v>9113.0</v>
+        <v>2093.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="6">
-        <v>66.0</v>
+        <v>62.0</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6">
-        <v>2602.0</v>
+        <v>8280.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="6">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="6">
-        <v>1332.0</v>
+        <v>8280.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="6">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="6">
-        <v>3957.0</v>
+        <v>9982.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="6">
-        <v>69.0</v>
+        <v>65.0</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="6">
-        <v>6906.0</v>
+        <v>9113.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="6">
-        <v>70.0</v>
+        <v>66.0</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="6">
-        <v>276.0</v>
+        <v>2602.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="6">
-        <v>71.0</v>
+        <v>67.0</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="6">
-        <v>353.0</v>
+        <v>1332.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="6">
-        <v>72.0</v>
+        <v>182.0</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="D74" s="6">
-        <v>499.0</v>
+        <v>4029.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="6">
-        <v>73.0</v>
+        <v>68.0</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="6">
-        <v>2277.0</v>
+        <v>3957.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="6">
-        <v>74.0</v>
+        <v>69.0</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="6">
-        <v>1610.0</v>
+        <v>6906.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="6">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="6">
-        <v>1849.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="6">
-        <v>76.0</v>
+        <v>71.0</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="6">
-        <v>3265.0</v>
+        <v>353.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="6">
-        <v>77.0</v>
+        <v>72.0</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C79" s="7"/>
       <c r="D79" s="6">
-        <v>362.0</v>
+        <v>499.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="6">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="6">
-        <v>8280.0</v>
+        <v>2277.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="6">
-        <v>79.0</v>
+        <v>76.0</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="6">
-        <v>3350.0</v>
+        <v>3265.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="6">
-        <v>80.0</v>
+        <v>77.0</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="D82" s="6">
-        <v>3783.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="6">
-        <v>81.0</v>
+        <v>78.0</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="6">
-        <v>1782.0</v>
+        <v>8280.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="6">
-        <v>82.0</v>
+        <v>79.0</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="6">
-        <v>589.0</v>
+        <v>3350.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="6">
-        <v>83.0</v>
+        <v>80.0</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="6">
-        <v>2265.0</v>
+        <v>3783.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="6">
-        <v>84.0</v>
+        <v>81.0</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="6">
-        <v>353.0</v>
+        <v>1782.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="6">
-        <v>85.0</v>
+        <v>82.0</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="6">
-        <v>1657.0</v>
+        <v>589.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="6">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C88" s="7"/>
       <c r="D88" s="6">
-        <v>5521.0</v>
+        <v>2265.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="6">
-        <v>87.0</v>
+        <v>84.0</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="6">
-        <v>526.0</v>
+        <v>353.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="6">
-        <v>88.0</v>
+        <v>85.0</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="6">
-        <v>336.0</v>
+        <v>1657.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="6">
-        <v>89.0</v>
+        <v>86.0</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D91" s="6">
-        <v>506.0</v>
+        <v>5521.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="6">
-        <v>90.0</v>
+        <v>87.0</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="6">
-        <v>675.0</v>
+        <v>526.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="6">
-        <v>91.0</v>
+        <v>88.0</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="6">
-        <v>608.0</v>
+        <v>336.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="6">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C94" s="7"/>
       <c r="D94" s="6">
-        <v>2433.0</v>
+        <v>506.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="6">
-        <v>93.0</v>
+        <v>90.0</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="6">
-        <v>7529.0</v>
+        <v>675.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="6">
-        <v>94.0</v>
+        <v>91.0</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="6">
-        <v>2782.0</v>
+        <v>608.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="6">
-        <v>95.0</v>
+        <v>200.0</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="D97" s="6">
-        <v>3974.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -2123,7 +2150,7 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="6">
@@ -2135,7 +2162,7 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="6">
@@ -2147,7 +2174,7 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="6">
@@ -2159,7 +2186,7 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="6">
@@ -2171,7 +2198,7 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="6">
@@ -2183,7 +2210,7 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="6">
@@ -2195,7 +2222,7 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="6">
@@ -2207,7 +2234,7 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="6">
@@ -2219,7 +2246,7 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="6">
@@ -2231,7 +2258,7 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="6">
@@ -2243,10 +2270,10 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D108" s="6">
         <v>10412.0</v>
@@ -2257,7 +2284,7 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="6">
@@ -2269,7 +2296,7 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="6">
@@ -2281,7 +2308,7 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="6">
@@ -2293,7 +2320,7 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="6">
@@ -2305,7 +2332,7 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="6">
@@ -2317,7 +2344,7 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="6">
@@ -2329,7 +2356,7 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="6">
@@ -2341,10 +2368,10 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D116" s="6">
         <v>1222.0</v>
@@ -2355,10 +2382,10 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D117" s="6">
         <v>1253.0</v>
@@ -2369,10 +2396,10 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D118" s="6">
         <v>1081.0</v>
@@ -2383,10 +2410,10 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D119" s="6">
         <v>2575.0</v>
@@ -2397,10 +2424,10 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D120" s="6">
         <v>1671.0</v>
@@ -2411,10 +2438,10 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D121" s="6">
         <v>700.0</v>
@@ -2425,7 +2452,7 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="6">
@@ -2437,7 +2464,7 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="6">
@@ -2449,7 +2476,7 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="6">
@@ -2461,7 +2488,7 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="6">
@@ -2473,7 +2500,7 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="6">
@@ -2485,10 +2512,10 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D127" s="6">
         <v>20388.0</v>
@@ -2496,856 +2523,864 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="6">
-        <v>126.0</v>
+        <v>128.0</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>142</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C128" s="7"/>
       <c r="D128" s="6">
-        <v>564.0</v>
+        <v>5184.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="6">
-        <v>127.0</v>
+        <v>129.0</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C129" s="7"/>
       <c r="D129" s="6">
-        <v>2254.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="6">
-        <v>128.0</v>
+        <v>130.0</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="6">
-        <v>5184.0</v>
+        <v>4745.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="6">
-        <v>129.0</v>
+        <v>131.0</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="6">
-        <v>1020.0</v>
+        <v>4478.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="6">
-        <v>130.0</v>
+        <v>132.0</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="6">
-        <v>4745.0</v>
+        <v>2809.0</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="6">
-        <v>131.0</v>
+        <v>133.0</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="6">
-        <v>4478.0</v>
+        <v>13748.0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="6">
-        <v>132.0</v>
+        <v>134.0</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="6">
-        <v>2809.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="6">
-        <v>133.0</v>
+        <v>135.0</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C135" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="D135" s="6">
-        <v>13748.0</v>
+        <v>34319.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="6">
-        <v>134.0</v>
+        <v>136.0</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="6">
-        <v>910.0</v>
+        <v>2536.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="6">
-        <v>135.0</v>
+        <v>137.0</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>152</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="6">
-        <v>34319.0</v>
+        <v>1788.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="6">
-        <v>136.0</v>
+        <v>138.0</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="6">
-        <v>2536.0</v>
+        <v>2416.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="6">
-        <v>137.0</v>
+        <v>139.0</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="6">
-        <v>1788.0</v>
+        <v>1098.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="6">
-        <v>138.0</v>
+        <v>140.0</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="6">
-        <v>2416.0</v>
+        <v>576.0</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="6">
-        <v>139.0</v>
+        <v>141.0</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="6">
-        <v>1098.0</v>
+        <v>14726.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="6">
-        <v>140.0</v>
+        <v>142.0</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="6">
-        <v>576.0</v>
+        <v>14431.0</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="6">
-        <v>141.0</v>
+        <v>143.0</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="6">
-        <v>14726.0</v>
+        <v>3015.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="6">
-        <v>142.0</v>
+        <v>144.0</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="6">
-        <v>14431.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="6">
-        <v>143.0</v>
+        <v>145.0</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C145" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="D145" s="6">
-        <v>3015.0</v>
+        <v>272.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="6">
-        <v>144.0</v>
+        <v>146.0</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="6">
-        <v>345.0</v>
+        <v>1018.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="6">
-        <v>145.0</v>
+        <v>147.0</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>163</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C147" s="7"/>
       <c r="D147" s="6">
-        <v>272.0</v>
+        <v>560.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="6">
-        <v>146.0</v>
+        <v>148.0</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C148" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="D148" s="6">
-        <v>1018.0</v>
+        <v>5401.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="6">
-        <v>147.0</v>
+        <v>149.0</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="6">
-        <v>560.0</v>
+        <v>2868.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="6">
-        <v>148.0</v>
+        <v>150.0</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C150" s="7"/>
       <c r="D150" s="6">
-        <v>5401.0</v>
+        <v>4971.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="6">
-        <v>149.0</v>
+        <v>151.0</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="6">
-        <v>2868.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="6">
-        <v>150.0</v>
+        <v>75.0</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="6">
-        <v>4971.0</v>
+        <v>1849.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="6">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="6">
-        <v>460.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="6">
-        <v>152.0</v>
+        <v>93.0</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C154" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="D154" s="6">
-        <v>910.0</v>
+        <v>7529.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="6">
-        <v>153.0</v>
+        <v>94.0</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C155" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="D155" s="6">
-        <v>922.0</v>
+        <v>2782.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="6">
-        <v>154.0</v>
+        <v>95.0</v>
       </c>
       <c r="B156" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C156" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C156" s="7"/>
       <c r="D156" s="6">
-        <v>1979.0</v>
+        <v>3974.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="6">
-        <v>155.0</v>
+        <v>153.0</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="6">
-        <v>595.0</v>
+        <v>922.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="6">
-        <v>156.0</v>
+        <v>154.0</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="6">
-        <v>288.0</v>
+        <v>1979.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="6">
-        <v>157.0</v>
+        <v>155.0</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="6">
-        <v>5494.0</v>
+        <v>595.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="6">
-        <v>158.0</v>
+        <v>156.0</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="6">
-        <v>1273.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="6">
-        <v>159.0</v>
+        <v>157.0</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="6">
-        <v>255.0</v>
+        <v>5494.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="6">
-        <v>160.0</v>
+        <v>158.0</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="6">
-        <v>11363.0</v>
+        <v>1273.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="6">
-        <v>161.0</v>
+        <v>159.0</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="6">
-        <v>1602.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="6">
-        <v>162.0</v>
+        <v>160.0</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="6">
-        <v>2180.0</v>
+        <v>11363.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="6">
-        <v>163.0</v>
+        <v>161.0</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="6">
-        <v>2188.0</v>
+        <v>1602.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="6">
-        <v>164.0</v>
+        <v>162.0</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>184</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C166" s="7"/>
       <c r="D166" s="6">
-        <v>5988.0</v>
+        <v>2180.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="6">
-        <v>165.0</v>
+        <v>163.0</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="6">
-        <v>1044.0</v>
+        <v>2188.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="6">
-        <v>166.0</v>
+        <v>164.0</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C168" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="D168" s="6">
-        <v>1436.0</v>
+        <v>5988.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="6">
-        <v>167.0</v>
+        <v>165.0</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="6">
-        <v>1512.0</v>
+        <v>1044.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="6">
-        <v>168.0</v>
+        <v>166.0</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="6">
-        <v>287.0</v>
+        <v>1436.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="6">
-        <v>169.0</v>
+        <v>167.0</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="6">
-        <v>336.0</v>
+        <v>1512.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="6">
-        <v>170.0</v>
+        <v>168.0</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="6">
-        <v>4507.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="6">
-        <v>171.0</v>
+        <v>211.0</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="6">
-        <v>4301.0</v>
+        <v>1436.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="6">
-        <v>172.0</v>
+        <v>169.0</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="6">
-        <v>2271.0</v>
+        <v>336.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="6">
-        <v>173.0</v>
+        <v>92.0</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C175" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="D175" s="6">
-        <v>413.0</v>
+        <v>2433.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="6">
-        <v>174.0</v>
+        <v>170.0</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="6">
-        <v>2230.0</v>
+        <v>4507.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="6">
-        <v>175.0</v>
+        <v>171.0</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="6">
-        <v>2628.0</v>
+        <v>4301.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="6">
-        <v>176.0</v>
+        <v>172.0</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="6">
-        <v>2497.0</v>
+        <v>2271.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="6">
-        <v>177.0</v>
+        <v>173.0</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>198</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C179" s="7"/>
       <c r="D179" s="6">
-        <v>2172.0</v>
+        <v>413.0</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="6">
-        <v>178.0</v>
+        <v>175.0</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="6">
-        <v>1673.0</v>
+        <v>2628.0</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="6">
-        <v>179.0</v>
+        <v>174.0</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="6">
-        <v>1544.0</v>
+        <v>2230.0</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="6">
-        <v>180.0</v>
+        <v>176.0</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="6">
-        <v>1930.0</v>
+        <v>2497.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="6">
-        <v>181.0</v>
+        <v>177.0</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C183" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="D183" s="6">
-        <v>7221.0</v>
+        <v>2172.0</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="6">
-        <v>182.0</v>
+        <v>178.0</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="6">
-        <v>4029.0</v>
+        <v>1673.0</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="6">
-        <v>183.0</v>
+        <v>179.0</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="6">
-        <v>21793.0</v>
+        <v>1544.0</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="6">
-        <v>184.0</v>
+        <v>180.0</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="6">
-        <v>9371.0</v>
+        <v>1930.0</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="6">
-        <v>185.0</v>
+        <v>181.0</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="6">
-        <v>7041.0</v>
+        <v>7221.0</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="6">
-        <v>186.0</v>
+        <v>183.0</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="6">
-        <v>7824.0</v>
+        <v>21793.0</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="6">
-        <v>187.0</v>
+        <v>184.0</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="6">
-        <v>2180.0</v>
+        <v>9371.0</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="6">
-        <v>188.0</v>
+        <v>185.0</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="6">
-        <v>3048.0</v>
+        <v>7041.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="6">
-        <v>189.0</v>
+        <v>186.0</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="6">
-        <v>1411.0</v>
+        <v>7824.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="6">
-        <v>190.0</v>
+        <v>187.0</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="6">
-        <v>3763.0</v>
+        <v>2180.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="6">
-        <v>191.0</v>
+        <v>188.0</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="6">
-        <v>2523.0</v>
+        <v>3048.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="6">
-        <v>192.0</v>
+        <v>189.0</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="6">
-        <v>2145.0</v>
+        <v>1411.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="6">
-        <v>193.0</v>
+        <v>190.0</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="6">
-        <v>2523.0</v>
+        <v>3763.0</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="6">
-        <v>194.0</v>
+        <v>195.0</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C196" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="D196" s="6">
-        <v>572.0</v>
+        <v>613.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="6">
-        <v>195.0</v>
+        <v>191.0</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C197" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="D197" s="6">
-        <v>613.0</v>
+        <v>2523.0</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
@@ -3353,83 +3388,89 @@
         <v>196.0</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C198" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="D198" s="6">
         <v>4190.0</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="6">
-        <v>197.0</v>
+        <v>194.0</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C199" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="D199" s="6">
-        <v>292.0</v>
+        <v>572.0</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="6">
-        <v>198.0</v>
+        <v>192.0</v>
       </c>
       <c r="B200" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C200" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C200" s="7"/>
       <c r="D200" s="6">
-        <v>336.0</v>
+        <v>2145.0</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="6">
-        <v>199.0</v>
+        <v>197.0</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="6">
-        <v>347.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="6">
-        <v>200.0</v>
+        <v>198.0</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="6">
-        <v>547.0</v>
+        <v>336.0</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="6">
-        <v>201.0</v>
+        <v>199.0</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="6">
-        <v>132.0</v>
+        <v>347.0</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="6">
-        <v>202.0</v>
+        <v>201.0</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="6">
-        <v>210.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
@@ -3437,7 +3478,7 @@
         <v>203.0</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="6">
@@ -3449,7 +3490,7 @@
         <v>204.0</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="6">
@@ -3461,7 +3502,7 @@
         <v>205.0</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="6">
@@ -3470,112 +3511,116 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="6">
-        <v>206.0</v>
+        <v>202.0</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C208" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="D208" s="6">
-        <v>6792.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="6">
-        <v>207.0</v>
+        <v>206.0</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="6">
-        <v>3366.0</v>
+        <v>6792.0</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="6">
-        <v>208.0</v>
+        <v>207.0</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="6">
-        <v>383.0</v>
+        <v>3366.0</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="6">
-        <v>209.0</v>
+        <v>208.0</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="6">
-        <v>748.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="6">
-        <v>210.0</v>
+        <v>209.0</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="6">
-        <v>2818.0</v>
+        <v>748.0</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="6">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C213" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="D213" s="6">
-        <v>1436.0</v>
+        <v>606.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="6">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>234</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C214" s="7"/>
       <c r="D214" s="6">
-        <v>606.0</v>
+        <v>8856.0</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="6">
-        <v>213.0</v>
+        <v>214.0</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="6">
-        <v>8856.0</v>
+        <v>2925.0</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="6">
-        <v>214.0</v>
+        <v>193.0</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C216" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="D216" s="6">
-        <v>2925.0</v>
+        <v>2523.0</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
@@ -3583,7 +3628,7 @@
         <v>215.0</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="6">
@@ -3595,7 +3640,7 @@
         <v>216.0</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="6">
@@ -3607,7 +3652,7 @@
         <v>217.0</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="6">
@@ -3619,7 +3664,7 @@
         <v>218.0</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C220" s="7"/>
       <c r="D220" s="6">
@@ -3631,7 +3676,7 @@
         <v>219.0</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C221" s="7"/>
       <c r="D221" s="6">
@@ -3643,7 +3688,7 @@
         <v>220.0</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="6">
@@ -3655,7 +3700,7 @@
         <v>221.0</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C223" s="7"/>
       <c r="D223" s="6">
@@ -3667,7 +3712,7 @@
         <v>222.0</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="6">
@@ -3679,7 +3724,7 @@
         <v>223.0</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="6">
@@ -3691,7 +3736,7 @@
         <v>224.0</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="6">
@@ -3703,7 +3748,7 @@
         <v>225.0</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="6">
@@ -3715,7 +3760,7 @@
         <v>226.0</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="6">
@@ -3727,7 +3772,7 @@
         <v>227.0</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C229" s="7"/>
       <c r="D229" s="6">
@@ -3739,7 +3784,7 @@
         <v>228.0</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="6">
@@ -3748,38 +3793,40 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="6">
-        <v>229.0</v>
+        <v>231.0</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C231" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="D231" s="6">
-        <v>1849.0</v>
+        <v>2036.0</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="6">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="6">
-        <v>4189.0</v>
+        <v>1849.0</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="6">
-        <v>231.0</v>
+        <v>230.0</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="6">
-        <v>2036.0</v>
+        <v>4189.0</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
@@ -3787,7 +3834,7 @@
         <v>232.0</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="6">
@@ -3799,10 +3846,10 @@
         <v>233.0</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D235" s="6">
         <v>869.0</v>
@@ -3813,7 +3860,7 @@
         <v>234.0</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="6">
